--- a/Spółki do wyceny.xlsx
+++ b/Spółki do wyceny.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30041519\Analizy giełdowe\Wyceny spolek gieldowych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0638E08-66E7-4C6A-AD0B-723CDD24CB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4F78C-926C-4862-9915-9AC4C5884B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9645" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1949,17 +1949,17 @@
       <selection activeCell="O422" sqref="O422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>421</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>426</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.27510000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>427</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>428</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0.2994</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>429</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0.1074</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0.2616</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>430</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0.2525</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>0.1686</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>431</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>432</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0.49419999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>8.6300000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>434</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0.1396</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>435</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>436</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>7.7299999999999994E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0.1042</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>7.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.26979999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0.20680000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.1706</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0.21809999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>439</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0.36470000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>440</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0.39710000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>441</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0.15820000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0.36449999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>442</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>443</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>444</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>445</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0.32179999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0.74719999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>332</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.29480000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>446</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.1106</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>447</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>448</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>7.9699999999999993E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0.1033</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.1177</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>449</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0.19839999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>450</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>451</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>452</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.1401</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>453</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.62429999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>454</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>455</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0.12280000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>67</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>332</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>456</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0.1515</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>457</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0.74809999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>458</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0.2356</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>459</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.1208</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>73</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>460</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>461</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0.29759999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>77</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>78</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0.25409999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>462</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>463</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0.2056</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>82</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0.16350000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>464</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>0.15040000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>86</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.25769999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>465</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>89</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>90</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0.71109999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>91</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>0.14360000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0.16980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0.24560000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>467</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>93</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0.12640000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0.13850000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>95</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>2.1924000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>469</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>0.23960000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>0.1767</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>471</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0.1188</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>6.6100000000000006E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>472</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>0.3019</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>473</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>474</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>475</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>0.12620000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>476</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0.1159</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>477</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>98</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>478</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0.50029999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>100</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>479</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0.18859999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>102</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>5.57E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>480</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>481</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>9.8100000000000007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>0.35139999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>105</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>482</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>106</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0.1321</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>107</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>0.1555</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>108</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>483</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>484</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0.88519999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>110</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>5.45E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>485</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0.4284</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>111</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>0.1996</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0.2203</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0.1169</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>115</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>116</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>0.1691</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>117</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>486</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0.20369999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>119</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0.68169999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>487</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>488</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>0.1699</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>489</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>0.87219999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>120</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0.26950000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>490</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>0.32819999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>121</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>0.55069999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>122</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>123</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>124</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0.13639999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>491</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>0.1431</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>332</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>492</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>125</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>0.1472</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0.16189999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>128</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>0.12239999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>493</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0.28410000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>494</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0.1598</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>130</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0.1215</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>495</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>496</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>0.9546</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>131</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>497</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>0.11840000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>0.1711</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>133</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>498</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>499</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>134</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0.20730000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>135</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>4.4499999999999998E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>136</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>137</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>138</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>139</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>140</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>141</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>7.6200000000000004E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>501</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0.14360000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>502</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>503</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>142</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>504</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>0.1666</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>332</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>505</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>506</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>1.6958</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>143</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>0.11269999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>144</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>0.26629999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>507</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>0.5222</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>508</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>0.2457</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>509</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>145</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0.1275</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>0.43159999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>147</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>148</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>149</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>8.8800000000000004E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>150</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>151</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>6.3200000000000006E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>152</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0.13869999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>510</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>0.10589999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>0.99209999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>155</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>512</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>156</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>157</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>513</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>0.50590000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>158</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>3.2387999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>159</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>160</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0.18340000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>514</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>161</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>162</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>515</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>0.15040000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>332</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>516</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>163</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>517</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>0.1154</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>518</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.31480000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>164</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>165</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>0.22739999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>519</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>0.1676</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>167</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>169</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>0.35720000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>0.69510000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>521</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>0.23319999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>170</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>8.4400000000000003E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>171</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>172</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>8.7099999999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>523</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0.85409999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>173</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0.2298</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>174</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>0.39850000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>175</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>176</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>177</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>0.14460000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>178</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>179</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0.1946</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>180</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>181</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>0.1729</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>182</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>183</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>5.74E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>184</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>0.43530000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>332</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>185</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>186</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>187</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>0.2213</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>188</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>189</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>0.47839999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>190</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>0.26910000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>191</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>0.1045</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>192</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>0.17649999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>193</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>0.1628</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>194</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>195</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>1.5546</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>196</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>197</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>0.85440000000000005</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>198</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>0.34449999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>199</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>200</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>0.15679999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>201</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>202</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>0.1007</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>203</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>0.1348</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>204</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>0.1426</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>205</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>206</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>8.3500000000000005E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>207</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>0.1401</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>208</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>209</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0.26629999999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>210</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>211</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>212</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>213</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>214</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>332</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>215</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>216</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>5.3699999999999998E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>217</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>218</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>219</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>6.3600000000000004E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>221</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>0.1076</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>222</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>4.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>223</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>224</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>225</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>8.09E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>226</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>227</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>9.74E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>228</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>229</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>230</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>231</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>232</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>0.6169</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>233</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>234</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>235</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0.1268</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>236</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>237</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>238</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>0.1188</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>239</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>0.25540000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>240</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>241</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>242</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>243</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>244</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>332</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>245</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>246</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>247</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>0.2969</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>248</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>249</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>0.1057</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>250</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>251</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>0.14960000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>252</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>9.01E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>253</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>254</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0.2165</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>255</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>256</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>0.13089999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>257</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>258</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>0.2601</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>259</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>0.5373</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>260</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>9.3200000000000005E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>261</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>262</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>0.38109999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>263</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>264</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>265</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>0.3387</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>266</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>267</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0.2913</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>268</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1.0121</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>269</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>270</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0.12479999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>272</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>0.1091</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>273</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>0.1983</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>274</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>275</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>332</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>276</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>277</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>278</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>279</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>280</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>0.1013</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>281</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>282</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>283</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>0.22140000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>284</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>285</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>2.0562999999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>286</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>287</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>0.22689999999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>288</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>289</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>290</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>291</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>292</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>293</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>294</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>295</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>0.25259999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>296</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>297</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>298</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>9.3899999999999997E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>299</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>300</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>7.4800000000000005E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>301</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0.1255</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>302</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>303</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>304</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>0.1411</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>305</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>332</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>306</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>0.1741</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>307</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>308</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>309</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>310</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>0.3236</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>311</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>312</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>0.1424</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>313</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>0.13669999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>314</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>315</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>316</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>0.16719999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>317</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>0.1328</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>318</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>319</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>320</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>321</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>322</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>0.1202</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>323</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0.15190000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>324</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>8.1500000000000003E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>325</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>0.50180000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>326</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>0.4526</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>327</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>328</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>0.89470000000000005</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>329</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>330</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>0.1231</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>331</v>
       </c>
@@ -19589,2136 +19589,2136 @@
         <v>1.4342999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="3"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="3"/>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="3"/>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="3"/>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="3"/>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="3"/>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="3"/>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="3"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="3"/>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="3"/>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="3"/>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="3"/>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="3"/>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="3"/>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="3"/>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="3"/>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="3"/>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="3"/>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="3"/>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="3"/>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="3"/>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="3"/>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="3"/>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="3"/>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="3"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="3"/>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="3"/>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="3"/>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="3"/>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="3"/>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="3"/>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="3"/>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="3"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="3"/>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="3"/>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="3"/>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="3"/>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="3"/>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="3"/>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="3"/>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="3"/>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="3"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="3"/>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="3"/>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="3"/>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="3"/>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="3"/>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="3"/>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="3"/>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="3"/>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="3"/>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="3"/>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="3"/>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="3"/>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="3"/>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="3"/>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="3"/>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="3"/>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="3"/>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="3"/>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="3"/>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="3"/>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="3"/>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="3"/>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="3"/>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="3"/>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="3"/>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="3"/>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="3"/>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="3"/>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="3"/>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="3"/>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D512" s="2"/>
       <c r="F512" s="3"/>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="3"/>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="3"/>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="3"/>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="3"/>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="3"/>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="3"/>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="3"/>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="3"/>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="3"/>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="3"/>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="3"/>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="3"/>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="3"/>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="3"/>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="3"/>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="3"/>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="3"/>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="3"/>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="3"/>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="3"/>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="3"/>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="3"/>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="3"/>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="3"/>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="3"/>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="3"/>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="3"/>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="3"/>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
       <c r="F542" s="3"/>
       <c r="J542" s="3"/>
     </row>
-    <row r="543" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
       <c r="F543" s="3"/>
       <c r="J543" s="3"/>
     </row>
-    <row r="544" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="3"/>
       <c r="J544" s="3"/>
     </row>
-    <row r="545" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
       <c r="F545" s="3"/>
       <c r="J545" s="3"/>
     </row>
-    <row r="546" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
       <c r="F546" s="3"/>
       <c r="J546" s="3"/>
     </row>
-    <row r="547" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="3"/>
       <c r="J547" s="3"/>
     </row>
-    <row r="548" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="3"/>
       <c r="J548" s="3"/>
     </row>
-    <row r="549" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
       <c r="F549" s="3"/>
       <c r="J549" s="3"/>
     </row>
-    <row r="550" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="3"/>
       <c r="J550" s="3"/>
     </row>
-    <row r="551" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
       <c r="F551" s="3"/>
       <c r="J551" s="3"/>
     </row>
-    <row r="552" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
       <c r="F552" s="3"/>
       <c r="J552" s="3"/>
     </row>
-    <row r="553" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="3"/>
       <c r="J553" s="3"/>
     </row>
-    <row r="554" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
       <c r="F554" s="3"/>
       <c r="J554" s="3"/>
     </row>
-    <row r="555" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="3"/>
       <c r="J556" s="3"/>
     </row>
-    <row r="557" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
       <c r="F557" s="3"/>
       <c r="J557" s="3"/>
     </row>
-    <row r="558" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="3"/>
       <c r="J558" s="3"/>
     </row>
-    <row r="559" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
       <c r="F559" s="3"/>
       <c r="J559" s="3"/>
     </row>
-    <row r="560" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
       <c r="F560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="3"/>
       <c r="J561" s="3"/>
     </row>
-    <row r="562" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="3"/>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
       <c r="F563" s="3"/>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
       <c r="F564" s="3"/>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
       <c r="F565" s="3"/>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
       <c r="F566" s="3"/>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
       <c r="F567" s="3"/>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="3"/>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="3"/>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
       <c r="F570" s="3"/>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
       <c r="F571" s="3"/>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
       <c r="F572" s="3"/>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
       <c r="F573" s="3"/>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="3"/>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
       <c r="F575" s="3"/>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="3"/>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
       <c r="F577" s="3"/>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
       <c r="F578" s="3"/>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
       <c r="F579" s="3"/>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="3"/>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
       <c r="F581" s="3"/>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
       <c r="F582" s="3"/>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
       <c r="F583" s="3"/>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
       <c r="F584" s="3"/>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D585" s="2"/>
       <c r="F585" s="3"/>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
       <c r="F586" s="3"/>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
       <c r="F587" s="3"/>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
       <c r="F588" s="3"/>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
       <c r="F589" s="3"/>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
       <c r="F590" s="3"/>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
       <c r="F591" s="3"/>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
       <c r="F592" s="3"/>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
       <c r="F593" s="3"/>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
       <c r="F594" s="3"/>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
       <c r="F595" s="3"/>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
       <c r="F596" s="3"/>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="3"/>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
       <c r="F598" s="3"/>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
       <c r="F599" s="3"/>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
       <c r="F600" s="3"/>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
       <c r="F601" s="3"/>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
       <c r="F602" s="3"/>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
       <c r="F603" s="3"/>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
       <c r="F604" s="3"/>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
       <c r="F605" s="3"/>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
       <c r="F606" s="3"/>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="3"/>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
       <c r="F608" s="3"/>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
       <c r="F609" s="3"/>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
       <c r="F610" s="3"/>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
       <c r="F611" s="3"/>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
       <c r="F612" s="3"/>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
       <c r="F613" s="3"/>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
       <c r="F614" s="3"/>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D615" s="2"/>
       <c r="F615" s="3"/>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="3"/>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
       <c r="F617" s="3"/>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D618" s="2"/>
       <c r="F618" s="3"/>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
       <c r="F619" s="3"/>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
       <c r="F620" s="3"/>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
       <c r="F621" s="3"/>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
       <c r="F622" s="3"/>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
       <c r="F623" s="3"/>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
       <c r="F624" s="3"/>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
       <c r="F625" s="3"/>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
       <c r="F626" s="3"/>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
       <c r="F627" s="3"/>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
       <c r="F628" s="3"/>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
       <c r="F629" s="3"/>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
       <c r="F630" s="3"/>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
       <c r="F631" s="3"/>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
       <c r="F632" s="3"/>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
       <c r="F633" s="3"/>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
       <c r="F634" s="3"/>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D635" s="2"/>
       <c r="F635" s="3"/>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
       <c r="F636" s="3"/>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
       <c r="F637" s="3"/>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
       <c r="F638" s="3"/>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
       <c r="F639" s="3"/>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
       <c r="F640" s="3"/>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
       <c r="F641" s="3"/>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
       <c r="F642" s="3"/>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
       <c r="F643" s="3"/>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
       <c r="F644" s="3"/>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
       <c r="F645" s="3"/>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
       <c r="F646" s="3"/>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
       <c r="F647" s="3"/>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
       <c r="F648" s="3"/>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
       <c r="F649" s="3"/>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
       <c r="F650" s="3"/>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D652" s="2"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D655" s="2"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D656" s="2"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D659" s="2"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D660" s="2"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D668" s="2"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D678" s="2"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D680" s="2"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D694" s="2"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D699" s="2"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D705" s="2"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D714" s="2"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D719" s="2"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D725" s="2"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D733" s="2"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D739" s="2"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D741" s="2"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D742" s="2"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D743" s="2"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D745" s="2"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D746" s="2"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D754" s="2"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D760" s="2"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D761" s="2"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D762" s="2"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D764" s="2"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D765" s="2"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D766" s="2"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D775" s="2"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D776" s="2"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D777" s="2"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D780" s="2"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D782" s="2"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D783" s="2"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D797" s="2"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D802" s="2"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D805" s="2"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D806" s="2"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D820" s="2"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
       <c r="F823" s="3"/>
